--- a/Data/Pages/dlgAutomobileInsurance_pagPriceOption.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagPriceOption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF9E71-5F0A-4C6A-949F-0E354C8EFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED80354F-9479-43CF-8624-7CB221BCDB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="744" windowWidth="34500" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2484" yWindow="696" windowWidth="35280" windowHeight="15732" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Check defaults</t>
   </si>
@@ -64,6 +64,51 @@
   </si>
   <si>
     <t>VIA_Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>id=priceTable</t>
+  </si>
+  <si>
+    <t>Choose Silver</t>
+  </si>
+  <si>
+    <t>Choose Gold</t>
+  </si>
+  <si>
+    <t>Choose Platinum</t>
+  </si>
+  <si>
+    <t>Choose Ultimate</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>id=selectsilver</t>
+  </si>
+  <si>
+    <t>id=selectgold</t>
+  </si>
+  <si>
+    <t>id=selectultimate</t>
+  </si>
+  <si>
+    <t>id=viewquote</t>
+  </si>
+  <si>
+    <t>id=downloadquote</t>
+  </si>
+  <si>
+    <t>id=preventerproductdata</t>
+  </si>
+  <si>
+    <t>id=nextsendquote</t>
+  </si>
+  <si>
+    <t>*css=label &gt;&gt; css=[value=Platinum]</t>
+  </si>
+  <si>
+    <t>&lt;CHECK&gt;</t>
   </si>
 </sst>
 </file>
@@ -87,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,10 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -140,14 +192,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>442064</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>113257</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -170,8 +222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1097280"/>
-          <a:ext cx="14409524" cy="8342857"/>
+          <a:off x="0" y="1725106"/>
+          <a:ext cx="10995660" cy="6366291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -480,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,22 +543,59 @@
     <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
     <col min="6" max="7" width="20.5546875" customWidth="1"/>
     <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -543,6 +632,59 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagPriceOption.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagPriceOption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A33FCB-E026-4527-923C-5D44CD5A0ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0711333B-97C8-465D-A9DC-E72CCBF1C8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2016" windowWidth="33276" windowHeight="14664" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2172" yWindow="888" windowWidth="34512" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Check defaults</t>
   </si>
@@ -66,9 +66,6 @@
     <t>VIA_Pixel9Pro_API35</t>
   </si>
   <si>
-    <t>id=priceTable</t>
-  </si>
-  <si>
     <t>Choose Silver</t>
   </si>
   <si>
@@ -109,6 +106,21 @@
   </si>
   <si>
     <t>*css=label &gt;&gt; css=[value=Ultimate]</t>
+  </si>
+  <si>
+    <t>Price option page check for open mandatory field</t>
+  </si>
+  <si>
+    <t>Price option page check for filled mandatory field</t>
+  </si>
+  <si>
+    <t>&lt;MissingMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>&lt;FilledMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>//*[@id='priceTable']</t>
   </si>
 </sst>
 </file>
@@ -192,14 +204,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>79186</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>132526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>44677</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -222,7 +234,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1725106"/>
+          <a:off x="0" y="2509966"/>
           <a:ext cx="10995660" cy="6366291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -532,16 +544,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.109375" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="32.21875" customWidth="1"/>
@@ -557,31 +569,31 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -646,46 +658,62 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagPriceOption.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagPriceOption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0711333B-97C8-465D-A9DC-E72CCBF1C8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAF4B52-2DF8-4BF4-920C-24DBF3AA0739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="888" windowWidth="34512" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2748" yWindow="300" windowWidth="31740" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Check defaults</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>//*[@id='priceTable']</t>
+  </si>
+  <si>
+    <t>Price Option Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;HINT Select at least 1 options&gt;</t>
   </si>
 </sst>
 </file>
@@ -208,8 +214,8 @@
       <xdr:rowOff>132526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>98017</xdr:rowOff>
     </xdr:to>
@@ -544,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.109375" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="32.21875" customWidth="1"/>
@@ -716,6 +722,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
